--- a/current-excel-manifests/NeuropathMetadataTemplate.xlsx
+++ b/current-excel-manifests/NeuropathMetadataTemplate.xlsx
@@ -437,7 +437,7 @@
     <t>Limbic amygdala transitional</t>
   </si>
   <si>
-    <t>No</t>
+    <t>no</t>
   </si>
   <si>
     <t>Hippocampus or Etorhinal</t>
@@ -488,7 +488,7 @@
     <t>Low or No clinical significance</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>yes</t>
   </si>
   <si>
     <t>No HS_L</t>
@@ -527,7 +527,7 @@
     <t>BRAAK Stage 4</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>other</t>
   </si>
   <si>
     <t>Neocortical diffuse</t>

--- a/current-excel-manifests/NeuropathMetadataTemplate.xlsx
+++ b/current-excel-manifests/NeuropathMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -715,6 +715,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
